--- a/data/trans_orig/P1430-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C901DE5E-E14A-4363-8E96-12660C224535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4FCCA9-435F-4A9D-9158-4754873C152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC127BB2-8D96-4489-BD5F-F0FA8DE58F4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86A20ECD-58F7-464F-AD3E-88770557265A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="219">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -430,223 +430,226 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
     <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -1103,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D784468-AC4B-4983-BADC-9A3B76E51E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CB967D-A399-4520-9B69-C9490576AB38}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2679,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D839F98-F6B7-40DD-B00E-9633028965D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD95A02F-FBD6-450C-8F1D-1FCC099F9614}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,10 +2923,10 @@
         <v>394754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -2935,10 +2938,10 @@
         <v>814217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -3030,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3045,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3075,13 +3078,13 @@
         <v>1807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3093,10 +3096,10 @@
         <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,10 +3114,10 @@
         <v>589576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -3126,10 +3129,10 @@
         <v>561737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -3141,13 +3144,13 @@
         <v>1151313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,10 +3272,10 @@
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3302,7 +3305,7 @@
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,10 +3323,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>665</v>
@@ -3350,7 +3353,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>32</v>
@@ -3427,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3442,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3472,13 +3475,13 @@
         <v>6031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3487,13 +3490,13 @@
         <v>2086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3502,13 +3505,13 @@
         <v>8118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3526,13 @@
         <v>640017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>600</v>
@@ -3538,10 +3541,10 @@
         <v>646991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3550,16 +3553,16 @@
         <v>1177</v>
       </c>
       <c r="N18" s="7">
-        <v>1287007</v>
+        <v>1287008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3604,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3648,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3678,13 +3681,13 @@
         <v>7204</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3693,13 +3696,13 @@
         <v>981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3708,13 +3711,13 @@
         <v>8186</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3732,13 @@
         <v>470714</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>432</v>
@@ -3744,10 +3747,10 @@
         <v>495868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -3759,13 +3762,13 @@
         <v>966581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3884,13 +3887,13 @@
         <v>4685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3899,13 +3902,13 @@
         <v>7845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3914,13 +3917,13 @@
         <v>12530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,10 +3938,10 @@
         <v>586643</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>106</v>
@@ -3950,13 +3953,13 @@
         <v>770086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -3965,13 +3968,13 @@
         <v>1356729</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,10 +4096,10 @@
         <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4105,13 +4108,13 @@
         <v>13720</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -4120,13 +4123,13 @@
         <v>38483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,10 +4147,10 @@
         <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="H30" s="7">
         <v>3326</v>
@@ -4156,13 +4159,13 @@
         <v>3530822</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="M30" s="7">
         <v>6535</v>
@@ -4171,10 +4174,10 @@
         <v>6900409</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>198</v>
@@ -4255,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587F9ED-E90E-41DD-B79A-D5734A2E1E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28558AF8-3014-4908-8AE0-88378E3C21FF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4382,7 +4385,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4397,7 +4400,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4412,7 +4415,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4436,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4451,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4466,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4502,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4517,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4603,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4618,7 +4621,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4642,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4657,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4693,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4708,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4809,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4863,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4914,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5015,7 +5018,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -5030,7 +5033,7 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5069,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5135,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5427,7 +5430,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5442,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5481,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5496,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5547,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5633,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5648,7 +5651,7 @@
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5687,7 +5690,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5702,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5753,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1430-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4FCCA9-435F-4A9D-9158-4754873C152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABB1BCA-EAED-439E-BA36-D959C164F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86A20ECD-58F7-464F-AD3E-88770557265A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{189CF484-AF6B-46C5-93C1-4188D67DB242}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="211">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -121,16 +121,16 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,98%</t>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -139,7 +139,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,48%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -148,532 +148,508 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -1106,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CB967D-A399-4520-9B69-C9490576AB38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323C2AA-8B56-4A0F-ABEC-DAD9D097C47E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1726,10 +1702,10 @@
         <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>662</v>
@@ -1759,13 +1735,13 @@
         <v>705615</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -1774,13 +1750,13 @@
         <v>1384529</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,7 +1812,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1854,37 +1830,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1875,13 @@
         <v>9432</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1914,13 +1890,13 @@
         <v>5467</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1929,13 +1905,13 @@
         <v>14899</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,13 +1926,13 @@
         <v>605185</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>533</v>
@@ -1965,13 +1941,13 @@
         <v>608797</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1072</v>
@@ -1980,13 +1956,13 @@
         <v>1213981</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,7 +2018,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2060,37 +2036,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2081,13 @@
         <v>5479</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2120,13 +2096,13 @@
         <v>6246</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2135,13 +2111,13 @@
         <v>11725</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2132,13 @@
         <v>423950</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -2171,13 +2147,13 @@
         <v>441554</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>789</v>
@@ -2186,13 +2162,13 @@
         <v>865504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2224,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2266,37 +2242,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2287,13 @@
         <v>5108</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2326,13 +2302,13 @@
         <v>6500</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2341,13 +2317,13 @@
         <v>11608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2338,13 @@
         <v>554529</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>688</v>
@@ -2377,13 +2353,13 @@
         <v>736475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>1188</v>
@@ -2392,13 +2368,13 @@
         <v>1291004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2487,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2502,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2493,13 @@
         <v>24933</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -2532,13 +2508,13 @@
         <v>22172</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -2547,13 +2523,13 @@
         <v>47104</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2544,13 @@
         <v>3401846</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>3275</v>
@@ -2583,13 +2559,13 @@
         <v>3532926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>6462</v>
@@ -2598,13 +2574,13 @@
         <v>6934773</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2636,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD95A02F-FBD6-450C-8F1D-1FCC099F9614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDAF728-1992-40FB-B4C0-0AC1C65079A4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2812,37 +2788,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2872,13 +2848,13 @@
         <v>1001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2887,13 +2863,13 @@
         <v>1001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2923,10 +2899,10 @@
         <v>394754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -2938,10 +2914,10 @@
         <v>814217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -3033,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3048,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3039,13 @@
         <v>920</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3078,13 +3054,13 @@
         <v>1807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3093,13 +3069,13 @@
         <v>2727</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,10 +3090,10 @@
         <v>589576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -3129,10 +3105,10 @@
         <v>561737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -3144,13 +3120,13 @@
         <v>1151313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3269,13 +3245,13 @@
         <v>5923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3305,7 +3281,7 @@
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3296,13 @@
         <v>663174</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>665</v>
@@ -3353,7 +3329,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>32</v>
@@ -3412,7 +3388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3430,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3445,7 +3421,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3460,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3451,13 @@
         <v>6031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3490,13 +3466,13 @@
         <v>2086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3505,13 +3481,13 @@
         <v>8118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3502,13 @@
         <v>640017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>600</v>
@@ -3541,10 +3517,10 @@
         <v>646991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3553,16 +3529,16 @@
         <v>1177</v>
       </c>
       <c r="N18" s="7">
-        <v>1287008</v>
+        <v>1287007</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3580,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3618,7 +3594,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3651,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3681,13 +3657,13 @@
         <v>7204</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3696,13 +3672,13 @@
         <v>981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3711,13 +3687,13 @@
         <v>8186</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3708,13 @@
         <v>470714</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>432</v>
@@ -3747,10 +3723,10 @@
         <v>495868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -3762,13 +3738,13 @@
         <v>966581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3800,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3842,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3887,13 +3863,13 @@
         <v>4685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3902,13 +3878,13 @@
         <v>7845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3917,13 +3893,13 @@
         <v>12530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3914,13 @@
         <v>586643</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -3953,13 +3929,13 @@
         <v>770086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -3968,13 +3944,13 @@
         <v>1356729</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4063,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4078,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4069,13 @@
         <v>24764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4108,13 +4084,13 @@
         <v>13720</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -4123,13 +4099,13 @@
         <v>38483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4120,13 @@
         <v>3369586</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>3326</v>
@@ -4159,13 +4135,13 @@
         <v>3530822</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>6535</v>
@@ -4174,13 +4150,13 @@
         <v>6900409</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4212,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28558AF8-3014-4908-8AE0-88378E3C21FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60114F-0901-4637-9E2D-8FF12469C1ED}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4385,7 +4361,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4400,7 +4376,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4415,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4439,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4454,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4469,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4505,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4520,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4606,7 +4582,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4621,7 +4597,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4645,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4660,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4675,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4711,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4726,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4812,7 +4788,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4827,7 +4803,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4851,7 +4827,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4866,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4902,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4917,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4988,7 +4964,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5018,7 +4994,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -5027,13 +5003,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5072,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5087,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5138,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5156,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -5194,7 +5170,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5224,7 +5200,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5239,7 +5215,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5278,7 +5254,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5293,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5344,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5409,13 +5385,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5430,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5445,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5469,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5484,7 +5460,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5499,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5535,7 +5511,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5550,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5538,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -5621,7 +5597,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5636,7 +5612,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5645,13 +5621,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5675,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5690,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5705,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5741,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5756,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5774,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>20</v>
@@ -5812,7 +5788,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1430-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C49EAC1-85C5-43C1-961E-04C4D89C9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1FCB8D-E23A-4716-89B1-B9F74813C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CDE7A4E-6DA1-4DB3-AF41-B8DA24AEB530}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22B7B6D9-54AA-4EA7-BF70-5A9728863AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="198">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -105,7 +105,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -138,7 +138,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -183,7 +183,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -240,7 +240,7 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -291,49 +291,82 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,4%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -468,12 +501,6 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>2,09%</t>
   </si>
   <si>
@@ -483,15 +510,9 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>98,82%</t>
   </si>
   <si>
@@ -534,46 +555,58 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -585,15 +618,9 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>98,9%</t>
   </si>
   <si>
@@ -601,12 +628,6 @@
   </si>
   <si>
     <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1021,8 +1042,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D17E00-A20F-4D29-BDC4-AE18AE2870F6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC4E5C8-F344-44D4-A4F4-40FF0689F375}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1923,37 +1944,37 @@
         <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1053</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6500</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6160</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11608</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>91</v>
@@ -1965,10 +1986,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="D20" s="7">
-        <v>554529</v>
+        <v>304678</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>92</v>
@@ -1977,37 +1998,37 @@
         <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="7">
+        <v>343</v>
+      </c>
+      <c r="I20" s="7">
+        <v>352943</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="7">
-        <v>688</v>
-      </c>
-      <c r="I20" s="7">
-        <v>736475</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>621</v>
+      </c>
+      <c r="N20" s="7">
+        <v>657622</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="7">
-        <v>1188</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1291004</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2031,10 +2052,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2046,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2063,55 +2084,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>24933</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5448</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22172</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5448</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="M22" s="7">
-        <v>43</v>
-      </c>
-      <c r="N22" s="7">
-        <v>47104</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,49 +2141,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3187</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>3401846</v>
+        <v>249851</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>345</v>
+      </c>
+      <c r="I23" s="7">
+        <v>383531</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="7">
+        <v>567</v>
+      </c>
+      <c r="N23" s="7">
+        <v>633382</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3275</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3532926</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6462</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6934773</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,63 +2192,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>24933</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22172</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>43</v>
+      </c>
+      <c r="N25" s="7">
+        <v>47104</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3187</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3401846</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3532926</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6462</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6934773</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2240,8 +2417,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FC88CF-50D5-4BE1-B722-A77A0C848904}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD0AAC-F711-4913-80D2-1CEDDD0F5A65}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2257,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2370,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2379,13 +2556,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2394,13 +2571,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2595,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2430,10 +2607,10 @@
         <v>394754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2445,10 +2622,10 @@
         <v>814217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2519,13 +2696,13 @@
         <v>920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2534,13 +2711,13 @@
         <v>1807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2549,13 +2726,13 @@
         <v>2727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,10 +2747,10 @@
         <v>589576</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2585,10 +2762,10 @@
         <v>561737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2600,13 +2777,13 @@
         <v>1151313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,10 +2854,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2710,7 +2887,7 @@
         <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2905,10 @@
         <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
@@ -2758,7 +2935,7 @@
         <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>31</v>
@@ -2829,13 +3006,13 @@
         <v>6031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2844,13 +3021,13 @@
         <v>2086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2859,10 +3036,10 @@
         <v>8118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>74</v>
@@ -2880,13 +3057,13 @@
         <v>640017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -2895,10 +3072,10 @@
         <v>646991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2910,13 +3087,13 @@
         <v>1287007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +3161,13 @@
         <v>7204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2999,13 +3176,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3014,13 +3191,13 @@
         <v>8186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,10 +3212,10 @@
         <v>470714</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -3050,10 +3227,10 @@
         <v>495868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3065,13 +3242,13 @@
         <v>966581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,49 +3310,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>4685</v>
+        <v>3023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3021</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" s="7">
         <v>6</v>
       </c>
-      <c r="I19" s="7">
-        <v>7845</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
       <c r="N19" s="7">
-        <v>12530</v>
+        <v>6044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,49 +3361,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>622</v>
+        <v>322</v>
       </c>
       <c r="D20" s="7">
-        <v>586643</v>
+        <v>331307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
-        <v>649</v>
+        <v>351</v>
       </c>
       <c r="I20" s="7">
-        <v>770086</v>
+        <v>374741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
-        <v>1271</v>
+        <v>673</v>
       </c>
       <c r="N20" s="7">
-        <v>1356729</v>
+        <v>706048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3250,10 +3427,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3265,10 +3442,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3282,55 +3459,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>24764</v>
+        <v>1662</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>13720</v>
+        <v>4824</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>38483</v>
+        <v>6486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,49 +3516,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>300</v>
       </c>
       <c r="D23" s="7">
-        <v>3369586</v>
+        <v>255336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>3326</v>
+        <v>298</v>
       </c>
       <c r="I23" s="7">
-        <v>3530822</v>
+        <v>395345</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>6535</v>
+        <v>598</v>
       </c>
       <c r="N23" s="7">
-        <v>6900409</v>
+        <v>650681</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,63 +3567,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>24764</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13720</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="7">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7">
+        <v>38483</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3369586</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3530822</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6535</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6900409</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
